--- a/file/CropWat/گروه‏بندی.xlsx
+++ b/file/CropWat/گروه‏بندی.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooya\OneDrive\My Teaching\Practical Irrigation Class\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooya\Documents\GitHub\createMyWebsite\content\file\CropWat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A01EE26-A8BD-44BB-BFDF-897C59A730E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="348">
   <si>
     <t>گروه</t>
   </si>
@@ -756,17 +758,329 @@
   </si>
   <si>
     <t>ملکشی</t>
+  </si>
+  <si>
+    <t>محصول</t>
+  </si>
+  <si>
+    <t>توکلی</t>
+  </si>
+  <si>
+    <t>عابدینی</t>
+  </si>
+  <si>
+    <t>سوسن</t>
+  </si>
+  <si>
+    <t>گروه لیست</t>
+  </si>
+  <si>
+    <t>ماریا</t>
+  </si>
+  <si>
+    <t>جهاندیده</t>
+  </si>
+  <si>
+    <t>شهریار</t>
+  </si>
+  <si>
+    <t>جهانگیری</t>
+  </si>
+  <si>
+    <t>حسین</t>
+  </si>
+  <si>
+    <t>قاسمی</t>
+  </si>
+  <si>
+    <t>عباسی</t>
+  </si>
+  <si>
+    <t>محمدعلی</t>
+  </si>
+  <si>
+    <t>قادری</t>
+  </si>
+  <si>
+    <t>دانش</t>
+  </si>
+  <si>
+    <t>امیرمحمد</t>
+  </si>
+  <si>
+    <t>نوکی</t>
+  </si>
+  <si>
+    <t>سجاد</t>
+  </si>
+  <si>
+    <t>رمضان پور</t>
+  </si>
+  <si>
+    <t>سیدان</t>
+  </si>
+  <si>
+    <t>سیده مهرانه</t>
+  </si>
+  <si>
+    <t>طاهری</t>
+  </si>
+  <si>
+    <t>عبدالهی</t>
+  </si>
+  <si>
+    <t>نوروزیان</t>
+  </si>
+  <si>
+    <t>سینا</t>
+  </si>
+  <si>
+    <t>معصومین</t>
+  </si>
+  <si>
+    <t>روحی</t>
+  </si>
+  <si>
+    <t>قائمی</t>
+  </si>
+  <si>
+    <t>مصطفی</t>
+  </si>
+  <si>
+    <t>ایرجی مقدم</t>
+  </si>
+  <si>
+    <t>سالارخراسانی</t>
+  </si>
+  <si>
+    <t>سیدمهدی</t>
+  </si>
+  <si>
+    <t>بحرینی</t>
+  </si>
+  <si>
+    <t>عطیه</t>
+  </si>
+  <si>
+    <t>حلمی</t>
+  </si>
+  <si>
+    <t>پویان منش</t>
+  </si>
+  <si>
+    <t>خوش سیرت</t>
+  </si>
+  <si>
+    <t>فرزانه</t>
+  </si>
+  <si>
+    <t>اتنا</t>
+  </si>
+  <si>
+    <t>عظیمی روئین</t>
+  </si>
+  <si>
+    <t>سرداریان باجگیران</t>
+  </si>
+  <si>
+    <t>ایمان</t>
+  </si>
+  <si>
+    <t>طاوسی</t>
+  </si>
+  <si>
+    <t>کهربائی لعل</t>
+  </si>
+  <si>
+    <t>مهلا</t>
+  </si>
+  <si>
+    <t>عباسی طرقبه</t>
+  </si>
+  <si>
+    <t>شقایق</t>
+  </si>
+  <si>
+    <t>همتی</t>
+  </si>
+  <si>
+    <t>معاون افشاری</t>
+  </si>
+  <si>
+    <t>سیدرضا</t>
+  </si>
+  <si>
+    <t>احمدی علی اباد</t>
+  </si>
+  <si>
+    <t>بابائی اشک زری</t>
+  </si>
+  <si>
+    <t>راه دار</t>
+  </si>
+  <si>
+    <t>سید محمد</t>
+  </si>
+  <si>
+    <t>رجائی بایگی</t>
+  </si>
+  <si>
+    <t>سیدمحمد</t>
+  </si>
+  <si>
+    <t>رفیعی</t>
+  </si>
+  <si>
+    <t>فاتحی توپکانلو</t>
+  </si>
+  <si>
+    <t>صادقی نامقی</t>
+  </si>
+  <si>
+    <t>نیما</t>
+  </si>
+  <si>
+    <t>خاموشی</t>
+  </si>
+  <si>
+    <t>غزل</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>کریمی زارچی</t>
+  </si>
+  <si>
+    <t>مجتبی</t>
+  </si>
+  <si>
+    <t>گلباف قاسم ابادی</t>
+  </si>
+  <si>
+    <t>ابوالحسنی</t>
+  </si>
+  <si>
+    <t>ایدا</t>
+  </si>
+  <si>
+    <t>شم ابادی</t>
+  </si>
+  <si>
+    <t>ایزدی شهری</t>
+  </si>
+  <si>
+    <t>ازاده</t>
+  </si>
+  <si>
+    <t>معلم</t>
+  </si>
+  <si>
+    <t>بام بری</t>
+  </si>
+  <si>
+    <t>فروشنده</t>
+  </si>
+  <si>
+    <t>خوالی</t>
+  </si>
+  <si>
+    <t>هانیه</t>
+  </si>
+  <si>
+    <t>قدوسیان بازه حور</t>
+  </si>
+  <si>
+    <t>کیانپور</t>
+  </si>
+  <si>
+    <t>هنرمندجباربیک</t>
+  </si>
+  <si>
+    <t>نیلوفر</t>
+  </si>
+  <si>
+    <t>مودی</t>
+  </si>
+  <si>
+    <t>وکیلی</t>
+  </si>
+  <si>
+    <t>ادینه پورتوزانلو</t>
+  </si>
+  <si>
+    <t>ده باشی</t>
+  </si>
+  <si>
+    <t>سمیرا</t>
+  </si>
+  <si>
+    <t>برزگراندای</t>
+  </si>
+  <si>
+    <t>نیرومند</t>
+  </si>
+  <si>
+    <t>رسول</t>
+  </si>
+  <si>
+    <t>حیدرپور</t>
+  </si>
+  <si>
+    <t>ویدا</t>
+  </si>
+  <si>
+    <t>گریوانی</t>
+  </si>
+  <si>
+    <t>دلخواه</t>
+  </si>
+  <si>
+    <t>شیرزادیان</t>
+  </si>
+  <si>
+    <t>پریسا</t>
+  </si>
+  <si>
+    <t>صبوحی صابونی</t>
+  </si>
+  <si>
+    <t>نجفی</t>
+  </si>
+  <si>
+    <t>صدر</t>
+  </si>
+  <si>
+    <t>مهدیه سادات</t>
+  </si>
+  <si>
+    <t>سعادت پور</t>
+  </si>
+  <si>
+    <t>اسماعیلی</t>
+  </si>
+  <si>
+    <t>براشکی</t>
+  </si>
+  <si>
+    <t>دهقان</t>
+  </si>
+  <si>
+    <t>عنبرسوز</t>
+  </si>
+  <si>
+    <t>محمدصادق</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -781,8 +1095,14 @@
       <name val="B Koodak"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="B Zar"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,8 +1127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -944,11 +1270,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +1368,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,7 +1392,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,28 +1683,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.09765625" customWidth="1"/>
-    <col min="6" max="6" width="49.796875" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" customWidth="1"/>
+    <col min="7" max="7" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1351,255 +1736,255 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="24"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="24">
         <v>4</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="24"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="24">
         <v>5</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="24"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1624,62 +2009,62 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="24">
         <v>7</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="18">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1704,1447 +2089,1447 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="24">
         <v>9</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="24">
         <v>10</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="24">
         <v>11</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="24"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="24">
         <v>12</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="24"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="24">
         <v>13</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="24"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="24">
         <v>14</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="24">
         <v>15</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="24"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="24">
         <v>16</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="24"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="24">
         <v>17</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="24"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="25">
         <v>18</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="25"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="24">
         <v>19</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="24"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="24">
         <v>20</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="24"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="24">
         <v>21</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="24"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="24">
         <v>22</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="24"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="24">
         <v>23</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="24"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="24">
         <v>24</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="24"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="24">
         <v>25</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="24"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="21">
         <v>26</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="24">
         <v>27</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="24"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="21">
         <v>28</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="21">
         <v>29</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J56" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="21">
         <v>30</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="21">
         <v>31</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J60" s="18" t="s">
+      <c r="J60" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="21">
         <v>32</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="21">
         <v>33</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="18" t="s">
+      <c r="I64" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J64" s="18" t="s">
+      <c r="J64" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="21">
         <v>34</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I66" s="18" t="s">
+      <c r="I66" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J66" s="18" t="s">
+      <c r="J66" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="21">
         <v>35</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="J68" s="18" t="s">
+      <c r="J68" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="21">
         <v>36</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="18" t="s">
+      <c r="I70" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J70" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="21">
         <v>37</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J72" s="18" t="s">
+      <c r="J72" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-    </row>
-    <row r="74" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="21">
         <v>38</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I74" s="18" t="s">
+      <c r="I74" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="J74" s="18" t="s">
+      <c r="J74" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>128</v>
       </c>
@@ -3176,391 +3561,391 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="21">
         <v>40</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="21">
         <v>41</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="21">
         <v>42</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I81" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="21">
         <v>43</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I83" s="18" t="s">
+      <c r="I83" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J83" s="18" t="s">
+      <c r="J83" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="21">
         <v>44</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J85" s="18" t="s">
+      <c r="J85" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="21">
         <v>45</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J87" s="18" t="s">
+      <c r="J87" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="21">
         <v>46</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I89" s="18" t="s">
+      <c r="I89" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="J89" s="18" t="s">
+      <c r="J89" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="21">
         <v>47</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I91" s="18" t="s">
+      <c r="I91" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J91" s="18" t="s">
+      <c r="J91" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="352">
     <mergeCell ref="C28:C29"/>
@@ -3919,4 +4304,1306 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3279C9-2789-4850-BC07-F60DFBA71EF1}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="19" customWidth="1"/>
+    <col min="2" max="4" width="14.33203125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="20">
+        <v>21</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="20">
+        <v>21</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="20">
+        <v>21</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>10</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="20">
+        <v>11</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="20">
+        <v>11</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="20">
+        <v>11</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="20">
+        <v>11</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>12</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="20">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="20">
+        <v>11</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <v>13</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="20">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="20">
+        <v>11</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <v>14</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="20">
+        <v>11</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20">
+        <v>11</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <v>15</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="20">
+        <v>11</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="20">
+        <v>21</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <v>16</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="20">
+        <v>11</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="20">
+        <v>11</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <v>17</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="20">
+        <v>21</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="20">
+        <v>21</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
+        <v>18</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="20">
+        <v>21</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="20">
+        <v>21</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <v>19</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="20">
+        <v>21</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="20">
+        <v>21</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
+        <v>20</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="20">
+        <v>21</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="29">
+        <v>21</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="20">
+        <v>21</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="29">
+        <v>22</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="20">
+        <v>19</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="20">
+        <v>19</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="29">
+        <v>23</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="20">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="20">
+        <v>19</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="29">
+        <v>24</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="20">
+        <v>19</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="20">
+        <v>19</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="29">
+        <v>25</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="20">
+        <v>19</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="20">
+        <v>9</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="29">
+        <v>26</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="20">
+        <v>19</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="20">
+        <v>19</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="29">
+        <v>27</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="20">
+        <v>19</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="20">
+        <v>19</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="29">
+        <v>28</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="20">
+        <v>9</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>29</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="20">
+        <v>9</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" s="20">
+        <v>9</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="29">
+        <v>30</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" s="20">
+        <v>9</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="20">
+        <v>9</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <v>31</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="20">
+        <v>9</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+      <c r="B63" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" s="20">
+        <v>9</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="29">
+        <v>32</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="20">
+        <v>9</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
+      <c r="B65" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="20">
+        <v>9</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <v>33</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" s="20">
+        <v>2</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
+      <c r="B67" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="20">
+        <v>2</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="29">
+        <v>34</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="20">
+        <v>2</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="20">
+        <v>2</v>
+      </c>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="29">
+        <v>35</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="20">
+        <v>2</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="20">
+        <v>2</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="28"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="28"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="28"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="28"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="28"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="28"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="28"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="28"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="28"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="28"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="28"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="120">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>